--- a/FE12/Cell Modeling/FE12_P45B_InternalResistances.xlsx
+++ b/FE12/Cell Modeling/FE12_P45B_InternalResistances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{4FE50021-A99D-4D2C-9934-DD046ED027C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F14E3B9-BD6E-4618-AE4B-E80745FDC688}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{ACDBA61E-6283-41CC-88CB-36478AB01B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FADE987-6613-4BF3-ADEB-85254E7C5173}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>IR_303</t>
   </si>
@@ -64,6 +64,9 @@
   <si>
     <t>SOC (%) - 4C</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,10 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +182,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Internal Resistance from HPPC Data</a:t>
+              <a:t> Internal Resistance, 2C discharge</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -288,6 +298,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.018666555555475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9914534444444332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8295406666666238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7081061111110944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6394416666666611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6371103333333643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6303286666666619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6328717777777921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0893640000000193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.318206777777776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -373,6 +413,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.2377132222222329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3940293333333056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3052317777777667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1740485555555793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1022051111111129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1350537777777649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0704158888888795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0769856666666779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4936353333333354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.164048999999972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -458,6 +528,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.6394416666667109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9693264444444312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.88964166666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8432295555555722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7154371111110995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7319675555555838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7052646666666798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6575808888889165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0365074444444442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3557569999999952</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -465,6 +565,236 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D085-4264-92B1-D0A6D9415C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>318 K / 45 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2475874444444894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6505873333333101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6563093333333017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.556279444444443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4738395555555597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.466422222222195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4041154444444643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.401360444444431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7207353333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8916354444444785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B20-4D8B-85C8-38A1DAED9D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>323 K / 50 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.9400804444443986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4475606666666545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4607002222222034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.395002666666656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3115031111111115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.28691944444446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2646671111111045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2074466666666543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5261857777777736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4982977777777862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B20-4D8B-85C8-38A1DAED9D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -602,7 +932,1981 @@
         <c:axId val="151840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="13.01"/>
+          <c:min val="7.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Internal Resistance (Ohms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151836992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P45B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Internal Resistance, 4C discharge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>298 K / 25 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.414017611111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.509086611111087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.352578055555572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2231962222222048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1651280555555577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.173499222222226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1648101666666673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2107984999999868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7256766111110977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.113677111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5649-47B7-8C35-C4174F2EF1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>303 K / 30 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.6702575555555921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9264975555555353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8336732777777947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7374581111111151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6486604444444559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6432562777777697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6344613333333431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6625416666666784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0892579999999814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.90950433333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5649-47B7-8C35-C4174F2EF1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>313 K / 40 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.1155370000000069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4971321666666508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4580315555555785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3450741111111206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2615746111111115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2734425555555582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.244726388888882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2646475555555714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6462232777777785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.091463722222224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5649-47B7-8C35-C4174F2EF1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>318 K / 45 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.7295108333333236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1975724999999837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1956651111111025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0929862222222209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0032348888888887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0255932222222306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9974068333333248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9878701111111043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3475112777777749</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.580400222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5649-47B7-8C35-C4174F2EF1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>323 K / 50 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.4208382777777562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9879761111111156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9870223888889074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8994962777777635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8277587777777731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8260633888888913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7987247222222296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7693727222222355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1059137777777703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1724395555555667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5649-47B7-8C35-C4174F2EF1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="151836992"/>
+        <c:axId val="151840832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151836992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>State of Charge (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151840832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151840832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13.01"/>
+          <c:min val="7.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Internal Resistance (Ohms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151836992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P45B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Internal Resistance Differences 2C minus 4C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>298 K / 25 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.39535105555563632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.51763316666665382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52303738888894813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.51509011111111036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.52568638888889652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53638888888886171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.53448150000000538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.57792672222219466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.6363126111110784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.79547033333332173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94ED-4746-8102-B0CACC59EB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>303 K / 30 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.43254433333335918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.53246822222222967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52844150000002799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56340955555553585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54645533333334306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50820250000000478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.56404544444446358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58555600000000041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.59562266666664598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.74545533333337843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94ED-4746-8102-B0CACC59EB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>313 K / 40 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.47609533333329601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52780572222221966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5683898888889285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.50184455555554841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54613750000001193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.54147499999997439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.53946172222220223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.60706666666665487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.60971583333333434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7357067222222291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94ED-4746-8102-B0CACC59EB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>318 K / 45 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.48192338888883413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.54698516666667363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.53935577777780086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.53670677777777787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.529395333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55917100000003561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.59329138888886046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58650966666667337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.62677594444444118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.68876477777774348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-94ED-4746-8102-B0CACC59EB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>323 K / 50 C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.48075783333335753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5404154444444611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52632216666670395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.50449361111110758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.51625566666666156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53914394444443126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.53405761111112504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56192605555558117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.57972799999999669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.6741417777777805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-94ED-4746-8102-B0CACC59EB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="151836992"/>
+        <c:axId val="151840832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151836992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>State of Charge (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151840832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151840832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.30000000000000004"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -839,6 +3143,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1355,18 +3739,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>256762</xdr:colOff>
+      <xdr:colOff>1037812</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427935</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>24846</xdr:rowOff>
     </xdr:to>
@@ -1393,11 +4809,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>416102</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>51116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE051486-ABD1-49C0-A0B6-39833BB5D7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145596</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>60955</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>21180</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EE42F4-0C27-4E55-A7E9-6B1D13C22D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,10 +5205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601490B4-DB49-47FD-9E78-E8909CFF9E88}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,10 +5225,11 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1758,7 +5247,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1776,149 +5265,697 @@
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>10.018666555555475</v>
+      </c>
+      <c r="C2">
+        <v>9.2377132222222329</v>
+      </c>
+      <c r="D2">
+        <v>8.6394416666667109</v>
+      </c>
+      <c r="E2">
+        <v>8.2475874444444894</v>
+      </c>
+      <c r="F2">
+        <v>7.9400804444443986</v>
+      </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
+      <c r="I2">
+        <v>10.414017611111111</v>
+      </c>
+      <c r="J2">
+        <v>9.6702575555555921</v>
+      </c>
+      <c r="K2">
+        <v>9.1155370000000069</v>
+      </c>
+      <c r="L2">
+        <v>8.7295108333333236</v>
+      </c>
+      <c r="M2">
+        <v>8.4208382777777562</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <f>B2-I2</f>
+        <v>-0.39535105555563632</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:T11" si="0">C2-J2</f>
+        <v>-0.43254433333335918</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>-0.47609533333329601</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>-0.48192338888883413</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>-0.48075783333335753</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>8.9914534444444332</v>
+      </c>
+      <c r="C3">
+        <v>8.3940293333333056</v>
+      </c>
+      <c r="D3">
+        <v>7.9693264444444312</v>
+      </c>
+      <c r="E3">
+        <v>7.6505873333333101</v>
+      </c>
+      <c r="F3">
+        <v>7.4475606666666545</v>
+      </c>
       <c r="H3" s="1">
         <v>20</v>
       </c>
+      <c r="I3">
+        <v>9.509086611111087</v>
+      </c>
+      <c r="J3">
+        <v>8.9264975555555353</v>
+      </c>
+      <c r="K3">
+        <v>8.4971321666666508</v>
+      </c>
+      <c r="L3">
+        <v>8.1975724999999837</v>
+      </c>
+      <c r="M3">
+        <v>7.9879761111111156</v>
+      </c>
+      <c r="O3" s="1">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="1">B3-I3</f>
+        <v>-0.51763316666665382</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>-0.53246822222222967</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>-0.52780572222221966</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>-0.54698516666667363</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>-0.5404154444444611</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30</v>
       </c>
+      <c r="B4">
+        <v>8.8295406666666238</v>
+      </c>
+      <c r="C4">
+        <v>8.3052317777777667</v>
+      </c>
+      <c r="D4">
+        <v>7.88964166666665</v>
+      </c>
+      <c r="E4">
+        <v>7.6563093333333017</v>
+      </c>
+      <c r="F4">
+        <v>7.4607002222222034</v>
+      </c>
       <c r="H4" s="1">
         <v>30</v>
       </c>
+      <c r="I4">
+        <v>9.352578055555572</v>
+      </c>
+      <c r="J4">
+        <v>8.8336732777777947</v>
+      </c>
+      <c r="K4">
+        <v>8.4580315555555785</v>
+      </c>
+      <c r="L4">
+        <v>8.1956651111111025</v>
+      </c>
+      <c r="M4">
+        <v>7.9870223888889074</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>-0.52303738888894813</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-0.52844150000002799</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>-0.5683898888889285</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>-0.53935577777780086</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-0.52632216666670395</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40</v>
       </c>
+      <c r="B5">
+        <v>8.7081061111110944</v>
+      </c>
+      <c r="C5">
+        <v>8.1740485555555793</v>
+      </c>
+      <c r="D5">
+        <v>7.8432295555555722</v>
+      </c>
+      <c r="E5">
+        <v>7.556279444444443</v>
+      </c>
+      <c r="F5">
+        <v>7.395002666666656</v>
+      </c>
       <c r="H5" s="1">
         <v>40</v>
       </c>
+      <c r="I5">
+        <v>9.2231962222222048</v>
+      </c>
+      <c r="J5">
+        <v>8.7374581111111151</v>
+      </c>
+      <c r="K5">
+        <v>8.3450741111111206</v>
+      </c>
+      <c r="L5">
+        <v>8.0929862222222209</v>
+      </c>
+      <c r="M5">
+        <v>7.8994962777777635</v>
+      </c>
+      <c r="O5" s="1">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>-0.51509011111111036</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>-0.56340955555553585</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-0.50184455555554841</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>-0.53670677777777787</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-0.50449361111110758</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50</v>
       </c>
+      <c r="B6">
+        <v>8.6394416666666611</v>
+      </c>
+      <c r="C6">
+        <v>8.1022051111111129</v>
+      </c>
+      <c r="D6">
+        <v>7.7154371111110995</v>
+      </c>
+      <c r="E6">
+        <v>7.4738395555555597</v>
+      </c>
+      <c r="F6">
+        <v>7.3115031111111115</v>
+      </c>
       <c r="H6" s="1">
         <v>50</v>
       </c>
+      <c r="I6">
+        <v>9.1651280555555577</v>
+      </c>
+      <c r="J6">
+        <v>8.6486604444444559</v>
+      </c>
+      <c r="K6">
+        <v>8.2615746111111115</v>
+      </c>
+      <c r="L6">
+        <v>8.0032348888888887</v>
+      </c>
+      <c r="M6">
+        <v>7.8277587777777731</v>
+      </c>
+      <c r="O6" s="1">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-0.52568638888889652</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-0.54645533333334306</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.54613750000001193</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-0.529395333333329</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-0.51625566666666156</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60</v>
       </c>
+      <c r="B7">
+        <v>8.6371103333333643</v>
+      </c>
+      <c r="C7">
+        <v>8.1350537777777649</v>
+      </c>
+      <c r="D7">
+        <v>7.7319675555555838</v>
+      </c>
+      <c r="E7">
+        <v>7.466422222222195</v>
+      </c>
+      <c r="F7">
+        <v>7.28691944444446</v>
+      </c>
       <c r="H7" s="1">
         <v>60</v>
       </c>
+      <c r="I7">
+        <v>9.173499222222226</v>
+      </c>
+      <c r="J7">
+        <v>8.6432562777777697</v>
+      </c>
+      <c r="K7">
+        <v>8.2734425555555582</v>
+      </c>
+      <c r="L7">
+        <v>8.0255932222222306</v>
+      </c>
+      <c r="M7">
+        <v>7.8260633888888913</v>
+      </c>
+      <c r="O7" s="1">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-0.53638888888886171</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>-0.50820250000000478</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-0.54147499999997439</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-0.55917100000003561</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-0.53914394444443126</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70</v>
       </c>
+      <c r="B8">
+        <v>8.6303286666666619</v>
+      </c>
+      <c r="C8">
+        <v>8.0704158888888795</v>
+      </c>
+      <c r="D8">
+        <v>7.7052646666666798</v>
+      </c>
+      <c r="E8">
+        <v>7.4041154444444643</v>
+      </c>
+      <c r="F8">
+        <v>7.2646671111111045</v>
+      </c>
       <c r="H8" s="1">
         <v>70</v>
       </c>
+      <c r="I8">
+        <v>9.1648101666666673</v>
+      </c>
+      <c r="J8">
+        <v>8.6344613333333431</v>
+      </c>
+      <c r="K8">
+        <v>8.244726388888882</v>
+      </c>
+      <c r="L8">
+        <v>7.9974068333333248</v>
+      </c>
+      <c r="M8">
+        <v>7.7987247222222296</v>
+      </c>
+      <c r="O8" s="1">
+        <v>70</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-0.53448150000000538</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-0.56404544444446358</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-0.53946172222220223</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-0.59329138888886046</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-0.53405761111112504</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80</v>
       </c>
+      <c r="B9">
+        <v>8.6328717777777921</v>
+      </c>
+      <c r="C9">
+        <v>8.0769856666666779</v>
+      </c>
+      <c r="D9">
+        <v>7.6575808888889165</v>
+      </c>
+      <c r="E9">
+        <v>7.401360444444431</v>
+      </c>
+      <c r="F9">
+        <v>7.2074466666666543</v>
+      </c>
       <c r="H9" s="1">
         <v>80</v>
       </c>
+      <c r="I9">
+        <v>9.2107984999999868</v>
+      </c>
+      <c r="J9">
+        <v>8.6625416666666784</v>
+      </c>
+      <c r="K9">
+        <v>8.2646475555555714</v>
+      </c>
+      <c r="L9">
+        <v>7.9878701111111043</v>
+      </c>
+      <c r="M9">
+        <v>7.7693727222222355</v>
+      </c>
+      <c r="O9" s="1">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-0.57792672222219466</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>-0.58555600000000041</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-0.60706666666665487</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>-0.58650966666667337</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>-0.56192605555558117</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90</v>
       </c>
+      <c r="B10">
+        <v>9.0893640000000193</v>
+      </c>
+      <c r="C10">
+        <v>8.4936353333333354</v>
+      </c>
+      <c r="D10">
+        <v>8.0365074444444442</v>
+      </c>
+      <c r="E10">
+        <v>7.7207353333333337</v>
+      </c>
+      <c r="F10">
+        <v>7.5261857777777736</v>
+      </c>
       <c r="H10" s="1">
         <v>90</v>
       </c>
+      <c r="I10">
+        <v>9.7256766111110977</v>
+      </c>
+      <c r="J10">
+        <v>9.0892579999999814</v>
+      </c>
+      <c r="K10">
+        <v>8.6462232777777785</v>
+      </c>
+      <c r="L10">
+        <v>8.3475112777777749</v>
+      </c>
+      <c r="M10">
+        <v>8.1059137777777703</v>
+      </c>
+      <c r="O10" s="1">
+        <v>90</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-0.6363126111110784</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-0.59562266666664598</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-0.60971583333333434</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-0.62677594444444118</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>-0.57972799999999669</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>100</v>
       </c>
+      <c r="B11">
+        <v>11.318206777777776</v>
+      </c>
+      <c r="C11">
+        <v>10.164048999999972</v>
+      </c>
+      <c r="D11">
+        <v>9.3557569999999952</v>
+      </c>
+      <c r="E11">
+        <v>8.8916354444444785</v>
+      </c>
+      <c r="F11">
+        <v>8.4982977777777862</v>
+      </c>
       <c r="H11" s="1">
         <v>100</v>
       </c>
+      <c r="I11">
+        <v>12.113677111111098</v>
+      </c>
+      <c r="J11">
+        <v>10.90950433333335</v>
+      </c>
+      <c r="K11">
+        <v>10.091463722222224</v>
+      </c>
+      <c r="L11">
+        <v>9.580400222222222</v>
+      </c>
+      <c r="M11">
+        <v>9.1724395555555667</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-0.79547033333332173</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-0.74545533333337843</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-0.7357067222222291</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-0.68876477777774348</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>-0.6741417777777805</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="e">
+      <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" t="e">
+        <v>9.1495089999999895</v>
+      </c>
+      <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" t="e">
+        <v>8.5153367666666622</v>
+      </c>
+      <c r="D13">
         <f>AVERAGE(D2:D11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
+        <v>8.0544154000000088</v>
+      </c>
+      <c r="E13">
         <f>AVERAGE(E2:E11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
+        <v>7.7468871999999989</v>
+      </c>
+      <c r="F13">
         <f>AVERAGE(F2:F11)</f>
-        <v>#DIV/0!</v>
+        <v>7.5338363888888811</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" t="e">
+      <c r="I13">
         <f>AVERAGE(I2:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" t="e">
+        <v>9.7052468166666603</v>
+      </c>
+      <c r="J13">
         <f>AVERAGE(J2:J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" t="e">
+        <v>9.0755568555555612</v>
+      </c>
+      <c r="K13">
         <f>AVERAGE(K2:K11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" t="e">
+        <v>8.6197852944444495</v>
+      </c>
+      <c r="L13">
         <f>AVERAGE(L2:L11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>8.3157751222222167</v>
+      </c>
+      <c r="M13">
         <f>AVERAGE(M2:M11)</f>
-        <v>#DIV/0!</v>
+        <v>8.0795606000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="e">
+      <c r="B14">
         <f>AVERAGE(B13,C13,D13,E13,F13)</f>
-        <v>#DIV/0!</v>
+        <v>8.1999969511111068</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I14" t="e">
+      <c r="I14">
         <f>AVERAGE(I13,J13,K13,L13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>8.7591849377777766</v>
       </c>
     </row>
   </sheetData>

--- a/FE12/Cell Modeling/FE12_P45B_InternalResistances.xlsx
+++ b/FE12/Cell Modeling/FE12_P45B_InternalResistances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{ACDBA61E-6283-41CC-88CB-36478AB01B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FADE987-6613-4BF3-ADEB-85254E7C5173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A128E-AF84-475D-A99B-20BE8DCFF96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +233,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>298 K / 25 C</c:v>
+            <c:v>303 K / 30 C</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -342,7 +348,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>303 K / 30 C</c:v>
+            <c:v>308 K / 35 C</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -972,7 +978,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Internal Resistance (Ohms)</a:t>
+                  <a:t>Internal Resistance (mOhms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1214,7 +1220,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>298 K / 25 C</c:v>
+            <c:v>303 K / 30 C</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1329,7 +1335,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>303 K / 30 C</c:v>
+            <c:v>308 K / 35 C</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1959,7 +1965,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Internal Resistance (Ohms)</a:t>
+                  <a:t>Internal Resistance (mOhms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2945,7 +2951,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Internal Resistance (Ohms)</a:t>
+                  <a:t>Internal Resistance (mOhms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4850,13 +4856,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>145596</xdr:colOff>
+      <xdr:colOff>77560</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>24493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>60955</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>605240</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>21180</xdr:rowOff>
     </xdr:to>
@@ -5207,8 +5213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601490B4-DB49-47FD-9E78-E8909CFF9E88}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,6 +5965,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
